--- a/example_data/EPA/label_corrected/091234-00075-20190611.xlsx
+++ b/example_data/EPA/label_corrected/091234-00075-20190611.xlsx
@@ -1072,7 +1072,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>18_Hazards_to_Humans_and_Domestic_Animals</t>
+          <t>18_hazards_to_humans_and_domestic_animals</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
@@ -1123,7 +1123,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>PPE</t>
+          <t>ppe</t>
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
@@ -1173,7 +1173,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>PPE</t>
+          <t>ppe</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>PPE</t>
+          <t>ppe</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
@@ -1256,7 +1256,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Application instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G33" t="inlineStr"/>
@@ -1289,7 +1289,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Off Target Movement || Env warning - water</t>
+          <t>env warning - water || off target movement</t>
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
@@ -1318,7 +1318,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>32_Physical_and_Chemical_Hazards</t>
+          <t>32_physical_and_chemical_hazards</t>
         </is>
       </c>
       <c r="G35" t="inlineStr"/>
@@ -1484,7 +1484,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>135_Product_Information</t>
+          <t>135_product_information</t>
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
@@ -1521,7 +1521,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>135_Product_Information</t>
+          <t>135_product_information</t>
         </is>
       </c>
       <c r="G42" t="inlineStr"/>
@@ -1681,7 +1681,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
@@ -1708,7 +1708,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G48" t="inlineStr"/>
@@ -1737,7 +1737,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G49" t="inlineStr"/>
@@ -1901,7 +1901,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G55" t="inlineStr"/>
@@ -1940,7 +1940,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G56" t="inlineStr"/>
@@ -1972,7 +1972,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G57" t="inlineStr"/>
@@ -2117,7 +2117,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G62" t="inlineStr"/>
@@ -2168,7 +2168,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G64" t="inlineStr"/>
@@ -2221,7 +2221,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G66" t="inlineStr"/>
@@ -2255,7 +2255,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G67" t="inlineStr"/>
@@ -2285,7 +2285,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G68" t="inlineStr"/>
@@ -2314,7 +2314,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G69" t="inlineStr"/>
@@ -2343,7 +2343,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G70" t="inlineStr"/>
@@ -2372,7 +2372,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G71" t="inlineStr"/>
@@ -2400,7 +2400,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G72" t="inlineStr"/>
@@ -2437,7 +2437,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G73" t="inlineStr"/>
@@ -2470,7 +2470,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G74" t="inlineStr"/>
@@ -2521,7 +2521,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G76" t="inlineStr"/>
@@ -2548,7 +2548,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G77" t="inlineStr"/>
@@ -2583,7 +2583,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G78" t="inlineStr"/>
@@ -2615,7 +2615,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G79" t="inlineStr"/>
@@ -2651,7 +2651,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G80" t="inlineStr"/>
@@ -2683,7 +2683,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G81" t="inlineStr"/>
@@ -2714,7 +2714,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G82" t="inlineStr"/>
@@ -2746,7 +2746,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G83" t="inlineStr"/>
@@ -2780,7 +2780,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G84" t="inlineStr"/>
@@ -2812,7 +2812,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G85" t="inlineStr"/>
@@ -2843,7 +2843,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G86" t="inlineStr"/>
@@ -2872,7 +2872,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G87" t="inlineStr"/>
@@ -2900,7 +2900,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G88" t="inlineStr"/>
@@ -2928,7 +2928,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G89" t="inlineStr"/>
@@ -2960,7 +2960,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G90" t="inlineStr"/>
@@ -3039,7 +3039,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G93" t="inlineStr"/>
@@ -3071,7 +3071,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G94" t="inlineStr"/>
@@ -3105,7 +3105,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G95" t="inlineStr"/>
@@ -3132,7 +3132,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G96" t="inlineStr"/>
@@ -3166,7 +3166,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G97" t="inlineStr"/>
@@ -3216,7 +3216,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G99" t="inlineStr"/>
@@ -3270,7 +3270,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G101" t="inlineStr"/>
@@ -3320,7 +3320,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G103" t="inlineStr"/>
@@ -3347,7 +3347,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G104" t="inlineStr"/>
@@ -3374,7 +3374,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G105" t="inlineStr"/>
@@ -3401,7 +3401,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G106" t="inlineStr"/>
@@ -3428,7 +3428,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Mixing || Use Restrictions || 135_Product_Information</t>
+          <t>use restrictions || 135_product_information || mixing</t>
         </is>
       </c>
       <c r="G107" t="inlineStr"/>
@@ -3455,7 +3455,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Mixing || 135_Product_Information</t>
+          <t>mixing || 135_product_information</t>
         </is>
       </c>
       <c r="G108" t="inlineStr"/>
@@ -3507,7 +3507,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Safety Procedures</t>
+          <t>safety procedures</t>
         </is>
       </c>
       <c r="G110" t="inlineStr"/>
@@ -3546,7 +3546,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Safety Procedures</t>
+          <t>safety procedures</t>
         </is>
       </c>
       <c r="G111" t="inlineStr"/>
@@ -3624,7 +3624,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G114" t="inlineStr"/>
@@ -3656,7 +3656,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G115" t="inlineStr"/>
@@ -3688,7 +3688,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G116" t="inlineStr"/>
@@ -3719,7 +3719,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G117" t="inlineStr"/>
@@ -3752,7 +3752,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Mixing || Use Restrictions</t>
+          <t>use restrictions || mixing</t>
         </is>
       </c>
       <c r="G118" t="inlineStr"/>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G119" t="inlineStr"/>
@@ -3827,7 +3827,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G120" t="inlineStr"/>
@@ -3859,7 +3859,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G121" t="inlineStr"/>
@@ -3890,7 +3890,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G122" t="inlineStr"/>
@@ -3923,7 +3923,7 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G123" t="inlineStr"/>
@@ -3955,7 +3955,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G124" t="inlineStr"/>
@@ -3986,7 +3986,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G125" t="inlineStr"/>
@@ -5424,7 +5424,7 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G182" t="inlineStr"/>
@@ -5540,7 +5540,7 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G186" t="inlineStr"/>
@@ -5578,7 +5578,7 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G187" t="inlineStr"/>
@@ -5606,7 +5606,7 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G188" t="inlineStr"/>
@@ -5667,7 +5667,7 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G190" t="inlineStr"/>
@@ -5694,7 +5694,7 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G191" t="inlineStr"/>
@@ -5721,7 +5721,7 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G192" t="inlineStr"/>
@@ -5748,7 +5748,7 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G193" t="inlineStr"/>
@@ -5780,7 +5780,7 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G194" t="inlineStr"/>
@@ -5812,7 +5812,7 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G195" t="inlineStr"/>
@@ -5848,7 +5848,7 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G196" t="inlineStr"/>
@@ -5935,7 +5935,7 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G199" t="inlineStr"/>
@@ -5967,7 +5967,7 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G200" t="inlineStr"/>
@@ -6025,7 +6025,7 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G202" t="inlineStr"/>
@@ -6057,7 +6057,7 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G203" t="inlineStr"/>
@@ -6117,7 +6117,7 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G205" t="inlineStr"/>
@@ -6149,7 +6149,7 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G206" t="inlineStr"/>
@@ -6186,7 +6186,7 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G207" t="inlineStr"/>
@@ -6219,7 +6219,7 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G208" t="inlineStr"/>
@@ -6250,7 +6250,7 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G209" t="inlineStr"/>
@@ -6312,7 +6312,7 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G211" t="inlineStr"/>
@@ -6346,7 +6346,7 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G212" t="inlineStr"/>
@@ -6379,7 +6379,7 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>Mixing || Use Restrictions || 135_Product_Information</t>
+          <t>use restrictions || 135_product_information || mixing</t>
         </is>
       </c>
       <c r="G213" t="inlineStr"/>
@@ -6411,7 +6411,7 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G214" t="inlineStr"/>
@@ -6444,7 +6444,7 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>Mixing || Use Restrictions || 135_Product_Information</t>
+          <t>use restrictions || 135_product_information || mixing</t>
         </is>
       </c>
       <c r="G215" t="inlineStr"/>
@@ -6479,7 +6479,7 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G216" t="inlineStr"/>
@@ -6512,7 +6512,7 @@
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G217" t="inlineStr"/>
@@ -6568,7 +6568,7 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G219" t="inlineStr"/>
@@ -6596,7 +6596,7 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G220" t="inlineStr"/>
@@ -6656,7 +6656,7 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G222" t="inlineStr"/>
@@ -6689,7 +6689,7 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G223" t="inlineStr"/>
@@ -6718,7 +6718,7 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G224" t="inlineStr"/>
@@ -7019,7 +7019,7 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G233" t="inlineStr"/>
@@ -7054,7 +7054,7 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G234" t="inlineStr"/>
@@ -7089,7 +7089,7 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G235" t="inlineStr"/>
@@ -7123,7 +7123,7 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G236" t="inlineStr"/>
@@ -7184,7 +7184,7 @@
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G238" t="inlineStr"/>
@@ -7245,7 +7245,7 @@
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G240" t="inlineStr"/>
@@ -7281,7 +7281,7 @@
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G241" t="inlineStr"/>
@@ -7343,7 +7343,7 @@
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G243" t="inlineStr"/>
@@ -7376,7 +7376,7 @@
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G244" t="inlineStr"/>
@@ -7411,7 +7411,7 @@
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G245" t="inlineStr"/>
@@ -7443,7 +7443,7 @@
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>Application Instructions || Use Restrictions</t>
+          <t>use restrictions || application instructions</t>
         </is>
       </c>
       <c r="G246" t="inlineStr"/>
@@ -7475,7 +7475,7 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G247" t="inlineStr"/>
@@ -7508,7 +7508,7 @@
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G248" t="inlineStr"/>
@@ -7544,7 +7544,7 @@
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G249" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G250" t="inlineStr"/>
@@ -7617,7 +7617,7 @@
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G251" t="inlineStr"/>
@@ -7655,7 +7655,7 @@
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G252" t="inlineStr"/>
@@ -7687,7 +7687,7 @@
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G253" t="inlineStr"/>
@@ -7775,7 +7775,7 @@
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G256" t="inlineStr"/>
@@ -7802,7 +7802,7 @@
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G257" t="inlineStr"/>
@@ -7863,7 +7863,7 @@
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G259" t="inlineStr"/>
@@ -7895,7 +7895,7 @@
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G260" t="inlineStr"/>
@@ -7928,7 +7928,7 @@
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G261" t="inlineStr"/>
@@ -7963,7 +7963,7 @@
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G262" t="inlineStr"/>
@@ -8001,7 +8001,7 @@
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G263" t="inlineStr"/>
@@ -8047,7 +8047,7 @@
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G264" t="inlineStr"/>
@@ -8122,7 +8122,7 @@
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G267" t="inlineStr"/>
@@ -8155,7 +8155,7 @@
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G268" t="inlineStr"/>
@@ -8187,7 +8187,7 @@
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G269" t="inlineStr"/>
@@ -8230,7 +8230,7 @@
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G270" t="inlineStr"/>
@@ -8262,7 +8262,7 @@
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>Mixing || Application Instructions</t>
+          <t>mixing || application instructions</t>
         </is>
       </c>
       <c r="G271" t="inlineStr"/>
@@ -8297,7 +8297,7 @@
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G272" t="inlineStr"/>
@@ -8333,7 +8333,7 @@
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G273" t="inlineStr"/>
@@ -8657,7 +8657,7 @@
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G286" t="inlineStr"/>
@@ -8692,7 +8692,7 @@
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G287" t="inlineStr"/>
@@ -8724,7 +8724,7 @@
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G288" t="inlineStr"/>
@@ -8756,7 +8756,7 @@
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>Mixing || Application Instructions</t>
+          <t>mixing || application instructions</t>
         </is>
       </c>
       <c r="G289" t="inlineStr"/>
@@ -8789,7 +8789,7 @@
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G290" t="inlineStr"/>
@@ -8820,7 +8820,7 @@
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G291" t="inlineStr"/>
@@ -8938,7 +8938,7 @@
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G295" t="inlineStr"/>
@@ -8969,7 +8969,7 @@
       </c>
       <c r="F296" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G296" t="inlineStr"/>
@@ -9000,7 +9000,7 @@
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G297" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>Chemigation || Irrigation</t>
+          <t>irrigation || chemigation</t>
         </is>
       </c>
       <c r="G298" t="inlineStr"/>
@@ -9120,7 +9120,7 @@
       </c>
       <c r="F301" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G301" t="inlineStr"/>
@@ -9156,7 +9156,7 @@
       </c>
       <c r="F302" t="inlineStr">
         <is>
-          <t>Chemigation</t>
+          <t>chemigation</t>
         </is>
       </c>
       <c r="G302" t="inlineStr"/>
@@ -9190,7 +9190,7 @@
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t>Chemigation || Safety Procedures</t>
+          <t>safety procedures || chemigation</t>
         </is>
       </c>
       <c r="G303" t="inlineStr"/>
@@ -9306,7 +9306,7 @@
       </c>
       <c r="F307" t="inlineStr">
         <is>
-          <t>Chemigation || Application Instructions || Irrigation</t>
+          <t>irrigation || application instructions || chemigation</t>
         </is>
       </c>
       <c r="G307" t="inlineStr"/>
@@ -9348,7 +9348,7 @@
       </c>
       <c r="F308" t="inlineStr">
         <is>
-          <t>Safety Procedures</t>
+          <t>safety procedures</t>
         </is>
       </c>
       <c r="G308" t="inlineStr"/>
@@ -9380,7 +9380,7 @@
       </c>
       <c r="F309" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G309" t="inlineStr"/>
@@ -9440,7 +9440,7 @@
       </c>
       <c r="F311" t="inlineStr">
         <is>
-          <t>Application instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G311" t="inlineStr"/>
@@ -9531,7 +9531,7 @@
       </c>
       <c r="F314" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G314" t="inlineStr"/>
@@ -9649,7 +9649,7 @@
       </c>
       <c r="F318" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G318" t="inlineStr"/>
@@ -9682,7 +9682,7 @@
       </c>
       <c r="F319" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G319" t="inlineStr"/>
@@ -9773,7 +9773,7 @@
       </c>
       <c r="F322" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G322" t="inlineStr"/>
@@ -9805,7 +9805,7 @@
       </c>
       <c r="F323" t="inlineStr">
         <is>
-          <t>Application Instructions || Use Restrictions</t>
+          <t>use restrictions || application instructions</t>
         </is>
       </c>
       <c r="G323" t="inlineStr"/>
@@ -10008,7 +10008,7 @@
       </c>
       <c r="F330" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G330" t="inlineStr"/>
@@ -10044,7 +10044,7 @@
       </c>
       <c r="F331" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G331" t="inlineStr"/>
@@ -10189,7 +10189,7 @@
       </c>
       <c r="F336" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G336" t="inlineStr"/>
@@ -10226,7 +10226,7 @@
       </c>
       <c r="F337" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G337" t="inlineStr"/>
@@ -10342,7 +10342,7 @@
       </c>
       <c r="F341" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G341" t="inlineStr"/>
@@ -10377,7 +10377,7 @@
       </c>
       <c r="F342" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G342" t="inlineStr"/>
@@ -10547,7 +10547,7 @@
       </c>
       <c r="F348" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G348" t="inlineStr"/>
@@ -10609,7 +10609,7 @@
       </c>
       <c r="F350" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G350" t="inlineStr"/>
@@ -10701,7 +10701,7 @@
       </c>
       <c r="F353" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G353" t="inlineStr"/>
@@ -10732,7 +10732,7 @@
       </c>
       <c r="F354" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G354" t="inlineStr"/>
@@ -10851,7 +10851,7 @@
       </c>
       <c r="F358" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G358" t="inlineStr"/>
@@ -11130,7 +11130,7 @@
       </c>
       <c r="F368" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G368" t="inlineStr"/>
@@ -11165,7 +11165,7 @@
       </c>
       <c r="F369" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G369" t="inlineStr"/>
@@ -11198,7 +11198,7 @@
       </c>
       <c r="F370" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G370" t="inlineStr"/>
@@ -11399,7 +11399,7 @@
       </c>
       <c r="F377" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G377" t="inlineStr"/>
@@ -12337,7 +12337,7 @@
       </c>
       <c r="F411" t="inlineStr">
         <is>
-          <t>18_Hazards_to_Humans_and_Domestic_Animals</t>
+          <t>18_hazards_to_humans_and_domestic_animals</t>
         </is>
       </c>
       <c r="G411" t="inlineStr"/>
@@ -12389,7 +12389,7 @@
       </c>
       <c r="F413" t="inlineStr">
         <is>
-          <t>Application instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G413" t="inlineStr"/>
@@ -12425,7 +12425,7 @@
       </c>
       <c r="F414" t="inlineStr">
         <is>
-          <t>Off Target Movement || Env warning - water</t>
+          <t>env warning - water || off target movement</t>
         </is>
       </c>
       <c r="G414" t="inlineStr"/>
@@ -12453,7 +12453,7 @@
       </c>
       <c r="F415" t="inlineStr">
         <is>
-          <t>93_Referral_Statement</t>
+          <t>93_referral_statement</t>
         </is>
       </c>
       <c r="G415" t="inlineStr"/>
@@ -12993,7 +12993,7 @@
       </c>
       <c r="F434" t="inlineStr">
         <is>
-          <t>93_Referral_Statement</t>
+          <t>93_referral_statement</t>
         </is>
       </c>
       <c r="G434" t="inlineStr"/>
@@ -13377,7 +13377,7 @@
       </c>
       <c r="F450" t="inlineStr">
         <is>
-          <t>18_Hazards_to_Humans_and_Domestic_Animals</t>
+          <t>18_hazards_to_humans_and_domestic_animals</t>
         </is>
       </c>
       <c r="G450" t="inlineStr"/>
@@ -13428,7 +13428,7 @@
       </c>
       <c r="F452" t="inlineStr">
         <is>
-          <t>PPE</t>
+          <t>ppe</t>
         </is>
       </c>
       <c r="G452" t="inlineStr"/>
@@ -13478,7 +13478,7 @@
       </c>
       <c r="F454" t="inlineStr">
         <is>
-          <t>PPE</t>
+          <t>ppe</t>
         </is>
       </c>
       <c r="G454" t="inlineStr"/>
@@ -13506,7 +13506,7 @@
       </c>
       <c r="F455" t="inlineStr">
         <is>
-          <t>PPE</t>
+          <t>ppe</t>
         </is>
       </c>
       <c r="G455" t="inlineStr"/>
@@ -13561,7 +13561,7 @@
       </c>
       <c r="F457" t="inlineStr">
         <is>
-          <t>Application instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G457" t="inlineStr"/>
@@ -13594,7 +13594,7 @@
       </c>
       <c r="F458" t="inlineStr">
         <is>
-          <t>Off Target Movement || Env warning - water</t>
+          <t>env warning - water || off target movement</t>
         </is>
       </c>
       <c r="G458" t="inlineStr"/>
@@ -13623,7 +13623,7 @@
       </c>
       <c r="F459" t="inlineStr">
         <is>
-          <t>32_Physical_and_Chemical_Hazards</t>
+          <t>32_physical_and_chemical_hazards</t>
         </is>
       </c>
       <c r="G459" t="inlineStr"/>
@@ -13806,7 +13806,7 @@
       </c>
       <c r="F466" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G466" t="inlineStr"/>
@@ -13867,7 +13867,7 @@
       </c>
       <c r="F468" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G468" t="inlineStr"/>
@@ -13900,7 +13900,7 @@
       </c>
       <c r="F469" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G469" t="inlineStr"/>
@@ -13927,7 +13927,7 @@
       </c>
       <c r="F470" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G470" t="inlineStr"/>
@@ -13956,7 +13956,7 @@
       </c>
       <c r="F471" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G471" t="inlineStr"/>
@@ -14032,7 +14032,7 @@
       </c>
       <c r="F474" t="inlineStr">
         <is>
-          <t>134_Non-agriculture_Use_Requirements</t>
+          <t>134_non-agriculture_use_requirements</t>
         </is>
       </c>
       <c r="G474" t="inlineStr"/>
@@ -14059,7 +14059,7 @@
       </c>
       <c r="F475" t="inlineStr">
         <is>
-          <t>134_Non-agriculture_Use_Requirements</t>
+          <t>134_non-agriculture_use_requirements</t>
         </is>
       </c>
       <c r="G475" t="inlineStr"/>
@@ -14115,7 +14115,7 @@
       </c>
       <c r="F477" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G477" t="inlineStr"/>
@@ -14166,7 +14166,7 @@
       </c>
       <c r="F479" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G479" t="inlineStr"/>
@@ -14219,7 +14219,7 @@
       </c>
       <c r="F481" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G481" t="inlineStr"/>
@@ -14253,7 +14253,7 @@
       </c>
       <c r="F482" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G482" t="inlineStr"/>
@@ -14282,7 +14282,7 @@
       </c>
       <c r="F483" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G483" t="inlineStr"/>
@@ -14311,7 +14311,7 @@
       </c>
       <c r="F484" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G484" t="inlineStr"/>
@@ -14339,7 +14339,7 @@
       </c>
       <c r="F485" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G485" t="inlineStr"/>
@@ -14371,7 +14371,7 @@
       </c>
       <c r="F486" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G486" t="inlineStr"/>
@@ -14399,7 +14399,7 @@
       </c>
       <c r="F487" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G487" t="inlineStr"/>
@@ -14426,7 +14426,7 @@
       </c>
       <c r="F488" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G488" t="inlineStr"/>
@@ -14461,7 +14461,7 @@
       </c>
       <c r="F489" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G489" t="inlineStr"/>
@@ -14569,7 +14569,7 @@
       </c>
       <c r="F493" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G493" t="inlineStr"/>
@@ -14602,7 +14602,7 @@
       </c>
       <c r="F494" t="inlineStr">
         <is>
-          <t>Mixing || Use Restrictions || 135_Product_Information</t>
+          <t>use restrictions || 135_product_information || mixing</t>
         </is>
       </c>
       <c r="G494" t="inlineStr"/>
@@ -14661,7 +14661,7 @@
       </c>
       <c r="F496" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G496" t="inlineStr"/>
@@ -14697,7 +14697,7 @@
       </c>
       <c r="F497" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G497" t="inlineStr"/>
@@ -14759,7 +14759,7 @@
       </c>
       <c r="F499" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G499" t="inlineStr"/>
@@ -14790,7 +14790,7 @@
       </c>
       <c r="F500" t="inlineStr">
         <is>
-          <t>Irrigation</t>
+          <t>irrigation</t>
         </is>
       </c>
       <c r="G500" t="inlineStr"/>
@@ -14878,7 +14878,7 @@
       </c>
       <c r="F503" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G503" t="inlineStr"/>
@@ -14912,7 +14912,7 @@
       </c>
       <c r="F504" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G504" t="inlineStr"/>
@@ -15209,7 +15209,7 @@
       </c>
       <c r="F514" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G514" t="inlineStr"/>
@@ -15242,7 +15242,7 @@
       </c>
       <c r="F515" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G515" t="inlineStr"/>
@@ -15276,7 +15276,7 @@
       </c>
       <c r="F516" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G516" t="inlineStr"/>
@@ -15311,7 +15311,7 @@
       </c>
       <c r="F517" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G517" t="inlineStr"/>
@@ -15344,7 +15344,7 @@
       </c>
       <c r="F518" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G518" t="inlineStr"/>
@@ -15401,7 +15401,7 @@
       </c>
       <c r="F520" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G520" t="inlineStr"/>
@@ -15703,7 +15703,7 @@
       </c>
       <c r="F531" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G531" t="inlineStr"/>
@@ -15784,7 +15784,7 @@
       </c>
       <c r="F533" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G533" t="inlineStr"/>
@@ -16559,7 +16559,7 @@
       </c>
       <c r="F561" t="inlineStr">
         <is>
-          <t>18_Hazards_to_Humans_and_Domestic_Animals</t>
+          <t>18_hazards_to_humans_and_domestic_animals</t>
         </is>
       </c>
       <c r="G561" t="inlineStr"/>
@@ -16611,7 +16611,7 @@
       </c>
       <c r="F563" t="inlineStr">
         <is>
-          <t>Application instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G563" t="inlineStr"/>
@@ -16648,7 +16648,7 @@
       </c>
       <c r="F564" t="inlineStr">
         <is>
-          <t>Off Target Movement || Env warning - water</t>
+          <t>env warning - water || off target movement</t>
         </is>
       </c>
       <c r="G564" t="inlineStr"/>
@@ -16676,7 +16676,7 @@
       </c>
       <c r="F565" t="inlineStr">
         <is>
-          <t>93_Referral_Statement</t>
+          <t>93_referral_statement</t>
         </is>
       </c>
       <c r="G565" t="inlineStr"/>
@@ -17406,7 +17406,7 @@
       </c>
       <c r="F592" t="inlineStr">
         <is>
-          <t>135_Product_Information</t>
+          <t>135_product_information</t>
         </is>
       </c>
       <c r="G592" t="inlineStr"/>
@@ -17441,7 +17441,7 @@
       </c>
       <c r="F593" t="inlineStr">
         <is>
-          <t>135_Product_Information</t>
+          <t>135_product_information</t>
         </is>
       </c>
       <c r="G593" t="inlineStr"/>
@@ -17538,7 +17538,7 @@
       </c>
       <c r="F597" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G597" t="inlineStr"/>
@@ -17600,7 +17600,7 @@
       </c>
       <c r="F599" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G599" t="inlineStr"/>
@@ -17632,7 +17632,7 @@
       </c>
       <c r="F600" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G600" t="inlineStr"/>
@@ -17665,7 +17665,7 @@
       </c>
       <c r="F601" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G601" t="inlineStr"/>
@@ -17700,7 +17700,7 @@
       </c>
       <c r="F602" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G602" t="inlineStr"/>
@@ -17742,7 +17742,7 @@
       </c>
       <c r="F603" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G603" t="inlineStr"/>
@@ -17798,7 +17798,7 @@
       </c>
       <c r="F604" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G604" t="inlineStr"/>
@@ -17883,7 +17883,7 @@
       </c>
       <c r="F607" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G607" t="inlineStr"/>
@@ -17916,7 +17916,7 @@
       </c>
       <c r="F608" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G608" t="inlineStr"/>
@@ -17948,7 +17948,7 @@
       </c>
       <c r="F609" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G609" t="inlineStr"/>
@@ -17992,7 +17992,7 @@
       </c>
       <c r="F610" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G610" t="inlineStr"/>
@@ -18024,7 +18024,7 @@
       </c>
       <c r="F611" t="inlineStr">
         <is>
-          <t>Mixing || Application Instructions</t>
+          <t>mixing || application instructions</t>
         </is>
       </c>
       <c r="G611" t="inlineStr"/>
@@ -18059,7 +18059,7 @@
       </c>
       <c r="F612" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G612" t="inlineStr"/>
@@ -18095,7 +18095,7 @@
       </c>
       <c r="F613" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G613" t="inlineStr"/>
@@ -18416,7 +18416,7 @@
       </c>
       <c r="F626" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G626" t="inlineStr"/>
@@ -18451,7 +18451,7 @@
       </c>
       <c r="F627" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G627" t="inlineStr"/>
@@ -18483,7 +18483,7 @@
       </c>
       <c r="F628" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G628" t="inlineStr"/>
@@ -18515,7 +18515,7 @@
       </c>
       <c r="F629" t="inlineStr">
         <is>
-          <t>Mixing || Application Instructions</t>
+          <t>mixing || application instructions</t>
         </is>
       </c>
       <c r="G629" t="inlineStr"/>
